--- a/Project Wing/Model/Model - Max.xlsx
+++ b/Project Wing/Model/Model - Max.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Exocoetidae\Project Wing\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C35CE3-DF36-4B37-98FA-4786FF0E8B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50CEFAC-C348-4A57-96AF-3FB4D1753E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="128">
   <si>
     <t>γ</t>
   </si>
@@ -415,6 +413,9 @@
   <si>
     <t xml:space="preserve">Number of Deployed 5G </t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -423,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$ZAR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9957,11 +9958,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="4" max="16" width="22.6640625" customWidth="1"/>
@@ -9969,7 +9970,7 @@
     <col min="21" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -10184,7 +10185,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -10249,7 +10250,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -10374,7 +10375,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -10434,7 +10435,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -10524,8 +10525,8 @@
       <c r="I10" s="2">
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="J10" s="2">
-        <v>2.8900000000000002E-3</v>
+      <c r="J10" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K10" s="2">
         <v>2.8900000000000002E-3</v>
@@ -10564,7 +10565,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -10684,7 +10685,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="B13" t="s">
         <v>114</v>
       </c>
@@ -10730,7 +10731,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="B16" t="s">
         <v>114</v>
       </c>
@@ -10898,7 +10899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="B19" t="s">
         <v>114</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="B22" t="s">
         <v>114</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -11264,13 +11265,13 @@
         <v>0.28923076923076918</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="D26">
         <f>((2*D5)/(3*SQRT(3)*POWER($W4*EXP(-6),2)))</f>
         <v>7.5302550301611504</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="C30" t="s">
         <v>95</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>77.000000000000014</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="C31" t="s">
         <v>96</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>121.27500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="C32" t="s">
         <v>87</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:16">
       <c r="C33" t="s">
         <v>88</v>
       </c>
@@ -11539,7 +11540,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:16">
       <c r="C34" t="s">
         <v>89</v>
       </c>
@@ -11596,7 +11597,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:16">
       <c r="C35" t="s">
         <v>90</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:16">
       <c r="C36" t="s">
         <v>100</v>
       </c>
@@ -11710,7 +11711,7 @@
         <v>2552.7750000000001</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:16">
       <c r="D40" t="s">
         <v>4</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:16">
       <c r="C41" t="s">
         <v>95</v>
       </c>
@@ -11808,7 +11809,7 @@
         <v>48.400000000000006</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:16">
       <c r="C42" t="s">
         <v>96</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>254.10000000000002</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:16">
       <c r="C43" t="s">
         <v>87</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:16">
       <c r="C44" t="s">
         <v>88</v>
       </c>
@@ -11979,7 +11980,7 @@
         <v>1876.4</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:16">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>961.6</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:16">
       <c r="C46" t="s">
         <v>100</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>4006.5</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="D50" t="s">
         <v>4</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="C51" t="s">
         <v>95</v>
       </c>
@@ -12191,7 +12192,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="C52" t="s">
         <v>86</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>80.850000000000009</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="C53" t="s">
         <v>87</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="C54" t="s">
         <v>88</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="C55" t="s">
         <v>90</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="C56" t="s">
         <v>100</v>
       </c>
@@ -12476,7 +12477,7 @@
         <v>440.15000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16">
       <c r="D61" t="s">
         <v>4</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16">
       <c r="B62" t="s">
         <v>119</v>
       </c>
@@ -12525,12 +12526,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16">
       <c r="C66" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16">
       <c r="B67" t="s">
         <v>103</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16">
       <c r="C68" t="s">
         <v>105</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16">
       <c r="C69" t="s">
         <v>106</v>
       </c>
@@ -12678,12 +12679,12 @@
         <v>1.2209575648449267</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16">
       <c r="C71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16">
       <c r="B72" t="s">
         <v>103</v>
       </c>
@@ -12730,7 +12731,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16">
       <c r="C73" t="s">
         <v>105</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16">
       <c r="C74" t="s">
         <v>106</v>
       </c>
@@ -12831,12 +12832,12 @@
         <v>3.7561685891908114</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16">
       <c r="C76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16">
       <c r="B77" t="s">
         <v>103</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16">
       <c r="C78" t="s">
         <v>105</v>
       </c>
@@ -12927,7 +12928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16">
       <c r="C79" t="s">
         <v>106</v>
       </c>
@@ -12984,12 +12985,12 @@
         <v>1.5995484330134033</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16">
       <c r="C84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:16">
       <c r="D85" t="s">
         <v>4</v>
       </c>
@@ -13030,7 +13031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:16">
       <c r="C86" t="s">
         <v>99</v>
       </c>
@@ -13058,9 +13059,9 @@
         <f t="shared" si="25"/>
         <v>151100.02732244236</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="e">
         <f t="shared" si="25"/>
-        <v>46548.824684985098</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K86">
         <f t="shared" si="25"/>
@@ -13087,12 +13088,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:16">
       <c r="C88" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:16">
       <c r="D89" t="s">
         <v>4</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16">
       <c r="C90" t="s">
         <v>99</v>
       </c>
@@ -13161,9 +13162,9 @@
         <f t="shared" si="26"/>
         <v>91562.153130288003</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="e">
         <f t="shared" si="26"/>
-        <v>28206.020285791954</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K90">
         <f t="shared" si="26"/>
@@ -13190,12 +13191,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16">
       <c r="C92" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:16">
       <c r="D93" t="s">
         <v>4</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:16">
       <c r="C94" t="s">
         <v>99</v>
       </c>
@@ -13264,9 +13265,9 @@
         <f t="shared" si="27"/>
         <v>10275.947468150182</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="e">
         <f t="shared" si="27"/>
-        <v>3169.6614713514759</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K94">
         <f t="shared" si="27"/>
@@ -13293,12 +13294,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16">
       <c r="C97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16">
       <c r="D98" t="s">
         <v>4</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16">
       <c r="C99" t="s">
         <v>98</v>
       </c>
@@ -13396,12 +13397,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16">
       <c r="C101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16">
       <c r="D102" t="s">
         <v>4</v>
       </c>
@@ -13442,7 +13443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16">
       <c r="C103" t="s">
         <v>98</v>
       </c>
@@ -13499,12 +13500,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16">
       <c r="C105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16">
       <c r="D106" t="s">
         <v>4</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16">
       <c r="C107" t="s">
         <v>98</v>
       </c>
@@ -13602,12 +13603,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16">
       <c r="C110" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16">
       <c r="B111" t="s">
         <v>109</v>
       </c>
@@ -13651,7 +13652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16">
       <c r="C112" t="s">
         <v>110</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>-2552.7750000000001</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16">
       <c r="C113">
         <v>1</v>
       </c>
@@ -13736,9 +13737,9 @@
         <f t="shared" si="32"/>
         <v>5952714.3726775581</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="4" t="e">
         <f t="shared" si="32"/>
-        <v>1833846.3753150152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K113" s="4">
         <f t="shared" si="32"/>
@@ -13765,7 +13766,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16">
       <c r="C114">
         <v>2</v>
       </c>
@@ -13793,9 +13794,9 @@
         <f t="shared" si="33"/>
         <v>5952714.3726775581</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="4" t="e">
         <f t="shared" si="33"/>
-        <v>1833846.3753150152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K114" s="4">
         <f t="shared" si="33"/>
@@ -13822,7 +13823,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16">
       <c r="C115">
         <v>3</v>
       </c>
@@ -13850,9 +13851,9 @@
         <f t="shared" ref="I115:I117" si="39">I114</f>
         <v>5952714.3726775581</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="4" t="e">
         <f t="shared" ref="J115:J117" si="40">J114</f>
-        <v>1833846.3753150152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K115" s="4">
         <f t="shared" ref="K115:K117" si="41">K114</f>
@@ -13879,7 +13880,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16">
       <c r="C116">
         <v>4</v>
       </c>
@@ -13907,9 +13908,9 @@
         <f t="shared" si="39"/>
         <v>5952714.3726775581</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="4" t="e">
         <f t="shared" si="40"/>
-        <v>1833846.3753150152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K116" s="4">
         <f t="shared" si="41"/>
@@ -13936,7 +13937,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16">
       <c r="C117">
         <v>5</v>
       </c>
@@ -13964,9 +13965,9 @@
         <f t="shared" si="39"/>
         <v>5952714.3726775581</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="4" t="e">
         <f t="shared" si="40"/>
-        <v>1833846.3753150152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K117" s="4">
         <f t="shared" si="41"/>
@@ -13993,7 +13994,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16">
       <c r="C118" t="s">
         <v>109</v>
       </c>
@@ -14021,9 +14022,9 @@
         <f t="shared" si="47"/>
         <v>12061333.443436258</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="4" t="e">
         <f t="shared" si="47"/>
-        <v>3636402.9894472472</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K118" s="4">
         <f t="shared" si="47"/>
@@ -14050,7 +14051,7 @@
         <v>2532.1953496558967</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16">
       <c r="C119" t="s">
         <v>111</v>
       </c>
@@ -14078,9 +14079,9 @@
         <f t="shared" si="48"/>
         <v>0.32973002075111535</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="3" t="e">
         <f t="shared" si="48"/>
-        <v>0.3196952576202523</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K119" s="3">
         <f t="shared" si="48"/>
@@ -14107,12 +14108,12 @@
         <v>0.36187950910258171</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16">
       <c r="C123" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16">
       <c r="B124" t="s">
         <v>109</v>
       </c>
@@ -14156,7 +14157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16">
       <c r="C125" t="s">
         <v>110</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>-4006.5</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16">
       <c r="C126">
         <v>1</v>
       </c>
@@ -14241,9 +14242,9 @@
         <f t="shared" si="50"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="4" t="e">
         <f t="shared" si="50"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K126" s="4">
         <f t="shared" si="50"/>
@@ -14270,7 +14271,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16">
       <c r="C127">
         <v>2</v>
       </c>
@@ -14298,9 +14299,9 @@
         <f t="shared" si="51"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J127" s="4">
+      <c r="J127" s="4" t="e">
         <f t="shared" si="51"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K127" s="4">
         <f t="shared" si="51"/>
@@ -14327,7 +14328,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16">
       <c r="C128">
         <v>3</v>
       </c>
@@ -14355,9 +14356,9 @@
         <f t="shared" ref="I128:I135" si="57">I127</f>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="4" t="e">
         <f t="shared" ref="J128:J135" si="58">J127</f>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K128" s="4">
         <f t="shared" ref="K128:K135" si="59">K127</f>
@@ -14384,7 +14385,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:17">
       <c r="C129">
         <v>4</v>
       </c>
@@ -14412,9 +14413,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K129" s="4">
         <f t="shared" si="59"/>
@@ -14441,7 +14442,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:17">
       <c r="C130">
         <v>5</v>
       </c>
@@ -14469,9 +14470,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J130" s="4">
+      <c r="J130" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K130" s="4">
         <f t="shared" si="59"/>
@@ -14498,7 +14499,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:17">
       <c r="C131">
         <v>6</v>
       </c>
@@ -14526,9 +14527,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J131" s="4">
+      <c r="J131" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K131" s="4">
         <f t="shared" si="59"/>
@@ -14555,7 +14556,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:17">
       <c r="C132">
         <v>7</v>
       </c>
@@ -14583,9 +14584,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K132" s="4">
         <f t="shared" si="59"/>
@@ -14612,7 +14613,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:17">
       <c r="C133">
         <v>8</v>
       </c>
@@ -14640,9 +14641,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K133" s="4">
         <f t="shared" si="59"/>
@@ -14669,7 +14670,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:17">
       <c r="C134">
         <v>9</v>
       </c>
@@ -14697,9 +14698,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J134" s="4">
+      <c r="J134" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K134" s="4">
         <f t="shared" si="59"/>
@@ -14726,7 +14727,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:17">
       <c r="C135">
         <v>10</v>
       </c>
@@ -14754,9 +14755,9 @@
         <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
-      <c r="J135" s="4">
+      <c r="J135" s="4" t="e">
         <f t="shared" si="58"/>
-        <v>1852189.1797142082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K135" s="4">
         <f t="shared" si="59"/>
@@ -14783,7 +14784,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:17">
       <c r="C136" t="s">
         <v>109</v>
       </c>
@@ -14811,9 +14812,9 @@
         <f t="shared" si="65"/>
         <v>30973966.427723713</v>
       </c>
-      <c r="J136" s="4">
+      <c r="J136" s="4" t="e">
         <f t="shared" si="65"/>
-        <v>9275176.9344573617</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K136" s="4">
         <f t="shared" si="65"/>
@@ -14840,7 +14841,7 @@
         <v>5141.4393706052469</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:17">
       <c r="C137" t="s">
         <v>111</v>
       </c>
@@ -14868,9 +14869,9 @@
         <f t="shared" si="66"/>
         <v>0.37274055372767956</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="3" t="e">
         <f t="shared" si="66"/>
-        <v>0.350147889375789</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K137" s="3">
         <f t="shared" si="66"/>
@@ -14897,12 +14898,12 @@
         <v>0.26822262267047692</v>
       </c>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:17">
       <c r="C141" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:17">
       <c r="B142" t="s">
         <v>109</v>
       </c>
@@ -14946,7 +14947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:17">
       <c r="C143" t="s">
         <v>110</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>-440.15000000000003</v>
       </c>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:17">
       <c r="C144">
         <v>1</v>
       </c>
@@ -15031,9 +15032,9 @@
         <f t="shared" si="68"/>
         <v>6093538.45253185</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144" s="4" t="e">
         <f t="shared" si="68"/>
-        <v>1877225.5385286487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K144" s="4">
         <f t="shared" si="68"/>
@@ -15061,7 +15062,7 @@
       </c>
       <c r="Q144" s="4"/>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:16">
       <c r="C145">
         <v>2</v>
       </c>
@@ -15089,9 +15090,9 @@
         <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145" s="4" t="e">
         <f t="shared" si="69"/>
-        <v>1877225.5385286487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K145" s="4">
         <f t="shared" si="69"/>
@@ -15118,7 +15119,7 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:16">
       <c r="C146">
         <v>3</v>
       </c>
@@ -15146,9 +15147,9 @@
         <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="4" t="e">
         <f t="shared" si="69"/>
-        <v>1877225.5385286487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K146" s="4">
         <f t="shared" si="69"/>
@@ -15175,7 +15176,7 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:16">
       <c r="C147">
         <v>4</v>
       </c>
@@ -15203,9 +15204,9 @@
         <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
-      <c r="J147" s="4">
+      <c r="J147" s="4" t="e">
         <f t="shared" si="69"/>
-        <v>1877225.5385286487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K147" s="4">
         <f t="shared" si="69"/>
@@ -15232,7 +15233,7 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:16">
       <c r="C148">
         <v>5</v>
       </c>
@@ -15260,9 +15261,9 @@
         <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
-      <c r="J148" s="4">
+      <c r="J148" s="4" t="e">
         <f t="shared" si="69"/>
-        <v>1877225.5385286487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K148" s="4">
         <f t="shared" si="69"/>
@@ -15289,7 +15290,7 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:16">
       <c r="C149" t="s">
         <v>109</v>
       </c>
@@ -15317,9 +15318,9 @@
         <f t="shared" si="71"/>
         <v>25323697.971828461</v>
       </c>
-      <c r="J149" s="4">
+      <c r="J149" s="4" t="e">
         <f t="shared" si="71"/>
-        <v>7801017.8745721597</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K149" s="4">
         <f t="shared" si="71"/>
@@ -15346,7 +15347,7 @@
         <v>4733.1416737367672</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:16">
       <c r="C150" t="s">
         <v>111</v>
       </c>
@@ -15374,9 +15375,9 @@
         <f t="shared" si="72"/>
         <v>5.7583470667209768</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="3" t="e">
         <f t="shared" si="72"/>
-        <v>5.7511350328774284</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K150" s="3">
         <f t="shared" si="72"/>
@@ -15403,7 +15404,7 @@
         <v>2.7108985710346958</v>
       </c>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:16">
       <c r="D156" t="s">
         <v>21</v>
       </c>
@@ -15414,7 +15415,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:16">
       <c r="C157">
         <v>0</v>
       </c>
@@ -15431,7 +15432,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:16">
       <c r="C158">
         <v>1</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>0.42063730207107852</v>
       </c>
     </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:16">
       <c r="C159">
         <v>2</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>0.68637242593339298</v>
       </c>
     </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:16">
       <c r="C160">
         <v>3</v>
       </c>
@@ -15482,7 +15483,7 @@
         <v>1.1090959620437835</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:6">
       <c r="C161">
         <v>4</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:6">
       <c r="C162">
         <v>5</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>2.3015413400272946</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:6">
       <c r="C163">
         <v>6</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:6">
       <c r="C164">
         <v>7</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>3.6784586599727049</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:6">
       <c r="C165">
         <v>8</v>
       </c>
@@ -15567,7 +15568,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:6">
       <c r="C166">
         <v>9</v>
       </c>
@@ -15584,7 +15585,7 @@
         <v>4.8709040379562163</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:6">
       <c r="C167">
         <v>10</v>
       </c>
@@ -15601,7 +15602,7 @@
         <v>5.2936275740666066</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:6">
       <c r="C168">
         <v>11</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>5.5593626979289219</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:6">
       <c r="C169">
         <v>12</v>
       </c>
@@ -15635,7 +15636,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:6">
       <c r="C170">
         <v>13</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>5.5593626979289219</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:6">
       <c r="C171">
         <v>14</v>
       </c>
@@ -15669,7 +15670,7 @@
         <v>5.2936275740666074</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:6">
       <c r="C172">
         <v>15</v>
       </c>
@@ -15686,7 +15687,7 @@
         <v>4.8709040379562181</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:6">
       <c r="C173">
         <v>16</v>
       </c>
@@ -15703,7 +15704,7 @@
         <v>4.3200000000000012</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:6">
       <c r="C174">
         <v>17</v>
       </c>
@@ -15720,7 +15721,7 @@
         <v>3.6784586599727076</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:6">
       <c r="C175">
         <v>18</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>2.9900000000000007</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:6">
       <c r="C176">
         <v>19</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>2.3015413400272964</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16">
       <c r="C177">
         <v>20</v>
       </c>
@@ -15771,7 +15772,7 @@
         <v>1.6600000000000019</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="C178">
         <v>21</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>1.1090959620437841</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="C179">
         <v>22</v>
       </c>
@@ -15805,7 +15806,7 @@
         <v>0.68637242593339387</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="C180">
         <v>23</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>0.42063730207107897</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="C181">
         <v>24</v>
       </c>
@@ -15839,7 +15840,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>4</v>
       </c>
@@ -15880,7 +15881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="A188" t="s">
         <v>116</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="B189" t="s">
         <v>22</v>
       </c>
@@ -15977,7 +15978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="B190" t="s">
         <v>114</v>
       </c>
@@ -16024,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="A191" t="s">
         <v>117</v>
       </c>
@@ -16074,7 +16075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16">
       <c r="B192" t="s">
         <v>22</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16">
       <c r="B193" t="s">
         <v>114</v>
       </c>

--- a/Project Wing/Model/Model - Max.xlsx
+++ b/Project Wing/Model/Model - Max.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22307"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4590EC72-9305-412C-8FD6-77FC2DB575FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC348AA2-132D-4891-AA20-2678FC2DC65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Max" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9963,7 +9964,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -11030,55 +11031,55 @@
         <v>114</v>
       </c>
       <c r="D19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((D8*D9*D7)/$X4),(D$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" ref="D19:P19" si="2">_xlfn.CEILING.MATH(MAX(((D8*D9*D7)/$X4),(D$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
         <v>30809</v>
       </c>
       <c r="E19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((E8*E9*E7)/$X4),(E$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>39408</v>
       </c>
       <c r="F19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((F8*F9*F7)/$X4),(F$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>69149</v>
       </c>
       <c r="G19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((G8*G9*G7)/$X4),(G$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>56053</v>
       </c>
       <c r="H19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((H8*H9*H7)/$X4),(H$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>19763</v>
       </c>
       <c r="I19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((I8*I9*I7)/$X4),(I$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>1514</v>
       </c>
       <c r="J19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((J8*J9*J7)/$X4),(J$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>467</v>
       </c>
       <c r="K19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((K8*K9*K7)/$X4),(K$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((L8*L9*L7)/$X4),(L$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="M19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((M8*M9*M7)/$X4),(M$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="N19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((N8*N9*N7)/$X4),(N$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((O8*O9*O7)/$X4),(O$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <f>_xlfn.CEILING.MATH(MAX(((P8*P9*P7)/$X4),(P$5/((6*POWER($V$3,2)/4)*(SQRT(3))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11455,55 +11456,55 @@
         <v>95</v>
       </c>
       <c r="D36">
-        <f>(D14)*$V7*D17</f>
+        <f t="shared" ref="D36:P36" si="3">(D14)*$V7*D17</f>
         <v>1016697</v>
       </c>
       <c r="E36">
-        <f>(E14)*$V7*E17</f>
+        <f t="shared" si="3"/>
         <v>1127068.8</v>
       </c>
       <c r="F36">
-        <f>(F14)*$V7*F17</f>
+        <f t="shared" si="3"/>
         <v>1825533.6</v>
       </c>
       <c r="G36">
-        <f>(G14)*$V7*G17</f>
+        <f t="shared" si="3"/>
         <v>2466332</v>
       </c>
       <c r="H36">
-        <f>(H14)*$V7*H17</f>
+        <f t="shared" si="3"/>
         <v>652179</v>
       </c>
       <c r="I36">
-        <f>(I14)*$V7*I17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>(J14)*$V7*J17</f>
+        <f t="shared" si="3"/>
         <v>96188.400000000009</v>
       </c>
       <c r="K36">
-        <f>(K14)*$V7*K17</f>
+        <f t="shared" si="3"/>
         <v>1397</v>
       </c>
       <c r="L36">
-        <f>(L14)*$V7*L17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>(M14)*$V7*M17</f>
+        <f t="shared" si="3"/>
         <v>15004</v>
       </c>
       <c r="N36">
-        <f>(N14)*$V7*N17</f>
+        <f t="shared" si="3"/>
         <v>19.8</v>
       </c>
       <c r="O36">
-        <f>(O14)*$V7*O17</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="P36">
-        <f>(P14)*$V7*P17</f>
+        <f t="shared" si="3"/>
         <v>77.000000000000014</v>
       </c>
     </row>
@@ -11512,55 +11513,55 @@
         <v>96</v>
       </c>
       <c r="D37">
-        <f>(D11)*$V8*D17</f>
+        <f t="shared" ref="D37:P37" si="4">(D11)*$V8*D17</f>
         <v>1601297.7750000001</v>
       </c>
       <c r="E37">
-        <f>(E11)*$V8*E17</f>
+        <f t="shared" si="4"/>
         <v>1593068.4000000001</v>
       </c>
       <c r="F37">
-        <f>(F11)*$V8*F17</f>
+        <f t="shared" si="4"/>
         <v>3274550.8949999996</v>
       </c>
       <c r="G37">
-        <f>(G11)*$V8*G17</f>
+        <f t="shared" si="4"/>
         <v>2460166.17</v>
       </c>
       <c r="H37">
-        <f>(H11)*$V8*H17</f>
+        <f t="shared" si="4"/>
         <v>707614.21499999997</v>
       </c>
       <c r="I37">
-        <f>(I11)*$V8*I17</f>
+        <f t="shared" si="4"/>
         <v>1311377.76</v>
       </c>
       <c r="J37">
-        <f>(J11)*$V8*J17</f>
+        <f t="shared" si="4"/>
         <v>387158.31</v>
       </c>
       <c r="K37">
-        <f>(K11)*$V8*K17</f>
+        <f t="shared" si="4"/>
         <v>3813.81</v>
       </c>
       <c r="L37">
-        <f>(L11)*$V8*L17</f>
+        <f t="shared" si="4"/>
         <v>3252.48</v>
       </c>
       <c r="M37">
-        <f>(M11)*$V8*M17</f>
+        <f t="shared" si="4"/>
         <v>53564.280000000006</v>
       </c>
       <c r="N37">
-        <f>(N11)*$V8*N17</f>
+        <f t="shared" si="4"/>
         <v>62.370000000000005</v>
       </c>
       <c r="O37">
-        <f>(O11)*$V8*O17</f>
+        <f t="shared" si="4"/>
         <v>65.835000000000008</v>
       </c>
       <c r="P37">
-        <f>(P11)*$V8*P17</f>
+        <f t="shared" si="4"/>
         <v>121.27500000000001</v>
       </c>
     </row>
@@ -11569,55 +11570,55 @@
         <v>87</v>
       </c>
       <c r="D38" s="1">
-        <f>$V9*D17</f>
+        <f t="shared" ref="D38:P38" si="5">$V9*D17</f>
         <v>4448819.6000000006</v>
       </c>
       <c r="E38" s="1">
-        <f>$V9*E17</f>
+        <f t="shared" si="5"/>
         <v>5690515.2000000002</v>
       </c>
       <c r="F38" s="1">
-        <f>$V9*F17</f>
+        <f t="shared" si="5"/>
         <v>9985115.5999999996</v>
       </c>
       <c r="G38" s="1">
-        <f>$V9*G17</f>
+        <f t="shared" si="5"/>
         <v>8094053.2000000002</v>
       </c>
       <c r="H38" s="1">
-        <f>$V9*H17</f>
+        <f t="shared" si="5"/>
         <v>2853777.2</v>
       </c>
       <c r="I38" s="1">
-        <f>$V9*I17</f>
+        <f t="shared" si="5"/>
         <v>3415637.6</v>
       </c>
       <c r="J38" s="1">
-        <f>$V9*J17</f>
+        <f t="shared" si="5"/>
         <v>1052242.8</v>
       </c>
       <c r="K38" s="1">
-        <f>$V9*K17</f>
+        <f t="shared" si="5"/>
         <v>18338.8</v>
       </c>
       <c r="L38" s="1">
-        <f>$V9*L17</f>
+        <f t="shared" si="5"/>
         <v>12707.2</v>
       </c>
       <c r="M38" s="1">
-        <f>$V9*M17</f>
+        <f t="shared" si="5"/>
         <v>196961.6</v>
       </c>
       <c r="N38" s="1">
-        <f>$V9*N17</f>
+        <f t="shared" si="5"/>
         <v>433.20000000000005</v>
       </c>
       <c r="O38" s="1">
-        <f>$V9*O17</f>
+        <f t="shared" si="5"/>
         <v>433.20000000000005</v>
       </c>
       <c r="P38" s="1">
-        <f>$V9*P17</f>
+        <f t="shared" si="5"/>
         <v>722</v>
       </c>
     </row>
@@ -11626,55 +11627,55 @@
         <v>88</v>
       </c>
       <c r="D39" s="1">
-        <f>$V10*D17</f>
+        <f t="shared" ref="D39:P39" si="6">$V10*D17</f>
         <v>4448819.6000000006</v>
       </c>
       <c r="E39" s="1">
-        <f>$V10*E17</f>
+        <f t="shared" si="6"/>
         <v>5690515.2000000002</v>
       </c>
       <c r="F39" s="1">
-        <f>$V10*F17</f>
+        <f t="shared" si="6"/>
         <v>9985115.5999999996</v>
       </c>
       <c r="G39" s="1">
-        <f>$V10*G17</f>
+        <f t="shared" si="6"/>
         <v>8094053.2000000002</v>
       </c>
       <c r="H39" s="1">
-        <f>$V10*H17</f>
+        <f t="shared" si="6"/>
         <v>2853777.2</v>
       </c>
       <c r="I39" s="1">
-        <f>$V10*I17</f>
+        <f t="shared" si="6"/>
         <v>3415637.6</v>
       </c>
       <c r="J39" s="1">
-        <f>$V10*J17</f>
+        <f t="shared" si="6"/>
         <v>1052242.8</v>
       </c>
       <c r="K39" s="1">
-        <f>$V10*K17</f>
+        <f t="shared" si="6"/>
         <v>18338.8</v>
       </c>
       <c r="L39" s="1">
-        <f>$V10*L17</f>
+        <f t="shared" si="6"/>
         <v>12707.2</v>
       </c>
       <c r="M39" s="1">
-        <f>$V10*M17</f>
+        <f t="shared" si="6"/>
         <v>196961.6</v>
       </c>
       <c r="N39" s="1">
-        <f>$V10*N17</f>
+        <f t="shared" si="6"/>
         <v>433.20000000000005</v>
       </c>
       <c r="O39" s="1">
-        <f>$V10*O17</f>
+        <f t="shared" si="6"/>
         <v>433.20000000000005</v>
       </c>
       <c r="P39" s="1">
-        <f>$V10*P17</f>
+        <f t="shared" si="6"/>
         <v>722</v>
       </c>
     </row>
@@ -11683,55 +11684,55 @@
         <v>89</v>
       </c>
       <c r="D40" s="1">
-        <f>$V11*D17</f>
+        <f t="shared" ref="D40:P40" si="7">$V11*D17</f>
         <v>1913238.9000000001</v>
       </c>
       <c r="E40" s="1">
-        <f>$V11*E17</f>
+        <f t="shared" si="7"/>
         <v>2447236.8000000003</v>
       </c>
       <c r="F40" s="1">
-        <f>$V11*F17</f>
+        <f t="shared" si="7"/>
         <v>4294152.9000000004</v>
       </c>
       <c r="G40" s="1">
-        <f>$V11*G17</f>
+        <f t="shared" si="7"/>
         <v>3480891.3000000003</v>
       </c>
       <c r="H40" s="1">
-        <f>$V11*H17</f>
+        <f t="shared" si="7"/>
         <v>1227282.3</v>
       </c>
       <c r="I40" s="1">
-        <f>$V11*I17</f>
+        <f t="shared" si="7"/>
         <v>1468913.4000000001</v>
       </c>
       <c r="J40" s="1">
-        <f>$V11*J17</f>
+        <f t="shared" si="7"/>
         <v>452522.7</v>
       </c>
       <c r="K40" s="1">
-        <f>$V11*K17</f>
+        <f t="shared" si="7"/>
         <v>7886.7</v>
       </c>
       <c r="L40" s="1">
-        <f>$V11*L17</f>
+        <f t="shared" si="7"/>
         <v>5464.8</v>
       </c>
       <c r="M40" s="1">
-        <f>$V11*M17</f>
+        <f t="shared" si="7"/>
         <v>84704.400000000009</v>
       </c>
       <c r="N40" s="1">
-        <f>$V11*N17</f>
+        <f t="shared" si="7"/>
         <v>186.3</v>
       </c>
       <c r="O40" s="1">
-        <f>$V11*O17</f>
+        <f t="shared" si="7"/>
         <v>186.3</v>
       </c>
       <c r="P40" s="1">
-        <f>$V11*P17</f>
+        <f t="shared" si="7"/>
         <v>310.5</v>
       </c>
     </row>
@@ -11740,55 +11741,55 @@
         <v>90</v>
       </c>
       <c r="D41">
-        <f>D26*D17</f>
+        <f t="shared" ref="D41:P41" si="8">D26*D17</f>
         <v>17786035.699999999</v>
       </c>
       <c r="E41">
-        <f>E26*E17</f>
+        <f t="shared" si="8"/>
         <v>22750238.399999999</v>
       </c>
       <c r="F41">
-        <f>F26*F17</f>
+        <f t="shared" si="8"/>
         <v>39919717.699999996</v>
       </c>
       <c r="G41">
-        <f>G26*G17</f>
+        <f t="shared" si="8"/>
         <v>32359396.899999999</v>
       </c>
       <c r="H41">
-        <f>H26*H17</f>
+        <f t="shared" si="8"/>
         <v>11409179.899999999</v>
       </c>
       <c r="I41">
-        <f>I26*I17</f>
+        <f t="shared" si="8"/>
         <v>4099238.2</v>
       </c>
       <c r="J41">
-        <f>J26*J17</f>
+        <f t="shared" si="8"/>
         <v>1262837.1000000001</v>
       </c>
       <c r="K41">
-        <f>K26*K17</f>
+        <f t="shared" si="8"/>
         <v>15240</v>
       </c>
       <c r="L41">
-        <f>L26*L17</f>
+        <f t="shared" si="8"/>
         <v>15708</v>
       </c>
       <c r="M41">
-        <f>M26*M17</f>
+        <f t="shared" si="8"/>
         <v>236381.2</v>
       </c>
       <c r="N41">
-        <f>N26*N17</f>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="O41">
-        <f>O26*O17</f>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="P41">
-        <f>P26*P17</f>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
     </row>
@@ -11801,51 +11802,51 @@
         <v>31214908.575000003</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:P42" si="2">SUM(E36:E41)</f>
+        <f t="shared" ref="E42:P42" si="9">SUM(E36:E41)</f>
         <v>39298642.799999997</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>69284186.294999987</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>56954892.769999996</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>19703809.814999998</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>13710804.560000002</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>4303192.1100000003</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>65015.11</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>49839.68</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>783577.08000000007</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1494.8700000000001</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1544.5350000000001</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2552.7750000000001</v>
       </c>
     </row>
@@ -11895,55 +11896,55 @@
         <v>95</v>
       </c>
       <c r="D47">
-        <f>(D15)*$V7*D18</f>
+        <f t="shared" ref="D47:P47" si="10">(D15)*$V7*D18</f>
         <v>121092.40000000001</v>
       </c>
       <c r="E47">
-        <f>(E15)*$V7*E18</f>
+        <f t="shared" si="10"/>
         <v>149034.6</v>
       </c>
       <c r="F47">
-        <f>(F15)*$V7*F18</f>
+        <f t="shared" si="10"/>
         <v>52153.200000000004</v>
       </c>
       <c r="G47">
-        <f>(G15)*$V7*G18</f>
+        <f t="shared" si="10"/>
         <v>108556.8</v>
       </c>
       <c r="H47">
-        <f>(H15)*$V7*H18</f>
+        <f t="shared" si="10"/>
         <v>39124.800000000003</v>
       </c>
       <c r="I47">
-        <f>(I15)*$V7*I18</f>
+        <f t="shared" si="10"/>
         <v>86735</v>
       </c>
       <c r="J47">
-        <f>(J15)*$V7*J18</f>
+        <f t="shared" si="10"/>
         <v>69469.400000000009</v>
       </c>
       <c r="K47">
-        <f>(K15)*$V7*K18</f>
+        <f t="shared" si="10"/>
         <v>946</v>
       </c>
       <c r="L47">
-        <f>(L15)*$V7*L18</f>
+        <f t="shared" si="10"/>
         <v>127.60000000000001</v>
       </c>
       <c r="M47">
-        <f>(M15)*$V7*M18</f>
+        <f t="shared" si="10"/>
         <v>10010</v>
       </c>
       <c r="N47">
-        <f>(N15)*$V7*N18</f>
+        <f t="shared" si="10"/>
         <v>15.400000000000002</v>
       </c>
       <c r="O47">
-        <f>(O15)*$V7*O18</f>
+        <f t="shared" si="10"/>
         <v>37.400000000000006</v>
       </c>
       <c r="P47">
-        <f>(P15)*$V7*P18</f>
+        <f t="shared" si="10"/>
         <v>48.400000000000006</v>
       </c>
     </row>
@@ -11952,55 +11953,55 @@
         <v>96</v>
       </c>
       <c r="D48">
-        <f>(D15)*$V8*D18</f>
+        <f t="shared" ref="D48:P48" si="11">(D15)*$V8*D18</f>
         <v>635735.1</v>
       </c>
       <c r="E48">
-        <f>(E15)*$V8*E18</f>
+        <f t="shared" si="11"/>
         <v>782431.65</v>
       </c>
       <c r="F48">
-        <f>(F15)*$V8*F18</f>
+        <f t="shared" si="11"/>
         <v>273804.3</v>
       </c>
       <c r="G48">
-        <f>(G15)*$V8*G18</f>
+        <f t="shared" si="11"/>
         <v>569923.20000000007</v>
       </c>
       <c r="H48">
-        <f>(H15)*$V8*H18</f>
+        <f t="shared" si="11"/>
         <v>205405.20000000004</v>
       </c>
       <c r="I48">
-        <f>(I15)*$V8*I18</f>
+        <f t="shared" si="11"/>
         <v>455358.75</v>
       </c>
       <c r="J48">
-        <f>(J15)*$V8*J18</f>
+        <f t="shared" si="11"/>
         <v>364714.35000000003</v>
       </c>
       <c r="K48">
-        <f>(K15)*$V8*K18</f>
+        <f t="shared" si="11"/>
         <v>4966.5</v>
       </c>
       <c r="L48">
-        <f>(L15)*$V8*L18</f>
+        <f t="shared" si="11"/>
         <v>669.90000000000009</v>
       </c>
       <c r="M48">
-        <f>(M15)*$V8*M18</f>
+        <f t="shared" si="11"/>
         <v>52552.5</v>
       </c>
       <c r="N48">
-        <f>(N15)*$V8*N18</f>
+        <f t="shared" si="11"/>
         <v>80.850000000000009</v>
       </c>
       <c r="O48">
-        <f>(O15)*$V8*O18</f>
+        <f t="shared" si="11"/>
         <v>196.35000000000002</v>
       </c>
       <c r="P48">
-        <f>(P15)*$V8*P18</f>
+        <f t="shared" si="11"/>
         <v>254.10000000000002</v>
       </c>
     </row>
@@ -12009,55 +12010,55 @@
         <v>87</v>
       </c>
       <c r="D49" s="1">
-        <f>$W9*D18</f>
+        <f t="shared" ref="D49:P49" si="12">$W9*D18</f>
         <v>916661</v>
       </c>
       <c r="E49" s="1">
-        <f>$W9*E18</f>
+        <f t="shared" si="12"/>
         <v>1086397</v>
       </c>
       <c r="F49" s="1">
-        <f>$W9*F18</f>
+        <f t="shared" si="12"/>
         <v>570261</v>
       </c>
       <c r="G49" s="1">
-        <f>$W9*G18</f>
+        <f t="shared" si="12"/>
         <v>667686</v>
       </c>
       <c r="H49" s="1">
-        <f>$W9*H18</f>
+        <f t="shared" si="12"/>
         <v>320853</v>
       </c>
       <c r="I49" s="1">
-        <f>$W9*I18</f>
+        <f t="shared" si="12"/>
         <v>3414205</v>
       </c>
       <c r="J49" s="1">
-        <f>$W9*J18</f>
+        <f t="shared" si="12"/>
         <v>1051757</v>
       </c>
       <c r="K49" s="1">
-        <f>$W9*K18</f>
+        <f t="shared" si="12"/>
         <v>18619</v>
       </c>
       <c r="L49" s="1">
-        <f>$W9*L18</f>
+        <f t="shared" si="12"/>
         <v>12557</v>
       </c>
       <c r="M49" s="1">
-        <f>$W9*M18</f>
+        <f t="shared" si="12"/>
         <v>197015</v>
       </c>
       <c r="N49" s="1">
-        <f>$W9*N18</f>
+        <f t="shared" si="12"/>
         <v>433</v>
       </c>
       <c r="O49" s="1">
-        <f>$W9*O18</f>
+        <f t="shared" si="12"/>
         <v>433</v>
       </c>
       <c r="P49" s="1">
-        <f>$W9*P18</f>
+        <f t="shared" si="12"/>
         <v>866</v>
       </c>
     </row>
@@ -12066,55 +12067,55 @@
         <v>88</v>
       </c>
       <c r="D50" s="1">
-        <f>$W10*D18</f>
+        <f t="shared" ref="D50:P50" si="13">$W10*D18</f>
         <v>1986169.4000000001</v>
       </c>
       <c r="E50" s="1">
-        <f>$W10*E18</f>
+        <f t="shared" si="13"/>
         <v>2353943.8000000003</v>
       </c>
       <c r="F50" s="1">
-        <f>$W10*F18</f>
+        <f t="shared" si="13"/>
         <v>1235609.4000000001</v>
       </c>
       <c r="G50" s="1">
-        <f>$W10*G18</f>
+        <f t="shared" si="13"/>
         <v>1446704.4000000001</v>
       </c>
       <c r="H50" s="1">
-        <f>$W10*H18</f>
+        <f t="shared" si="13"/>
         <v>695206.20000000007</v>
       </c>
       <c r="I50" s="1">
-        <f>$W10*I18</f>
+        <f t="shared" si="13"/>
         <v>7397707</v>
       </c>
       <c r="J50" s="1">
-        <f>$W10*J18</f>
+        <f t="shared" si="13"/>
         <v>2278887.8000000003</v>
       </c>
       <c r="K50" s="1">
-        <f>$W10*K18</f>
+        <f t="shared" si="13"/>
         <v>40342.6</v>
       </c>
       <c r="L50" s="1">
-        <f>$W10*L18</f>
+        <f t="shared" si="13"/>
         <v>27207.800000000003</v>
       </c>
       <c r="M50" s="1">
-        <f>$W10*M18</f>
+        <f t="shared" si="13"/>
         <v>426881</v>
       </c>
       <c r="N50" s="1">
-        <f>$W10*N18</f>
+        <f t="shared" si="13"/>
         <v>938.2</v>
       </c>
       <c r="O50" s="1">
-        <f>$W10*O18</f>
+        <f t="shared" si="13"/>
         <v>938.2</v>
       </c>
       <c r="P50" s="1">
-        <f>$W10*P18</f>
+        <f t="shared" si="13"/>
         <v>1876.4</v>
       </c>
     </row>
@@ -12123,55 +12124,55 @@
         <v>90</v>
       </c>
       <c r="D51">
-        <f>D27*D18</f>
+        <f t="shared" ref="D51:P51" si="14">D27*D18</f>
         <v>3666644</v>
       </c>
       <c r="E51">
-        <f>E27*E18</f>
+        <f t="shared" si="14"/>
         <v>4345588</v>
       </c>
       <c r="F51">
-        <f>F27*F18</f>
+        <f t="shared" si="14"/>
         <v>2281044</v>
       </c>
       <c r="G51">
-        <f>G27*G18</f>
+        <f t="shared" si="14"/>
         <v>2670744</v>
       </c>
       <c r="H51">
-        <f>H27*H18</f>
+        <f t="shared" si="14"/>
         <v>1283412</v>
       </c>
       <c r="I51">
-        <f>I27*I18</f>
+        <f t="shared" si="14"/>
         <v>4097046</v>
       </c>
       <c r="J51">
-        <f>J27*J18</f>
+        <f t="shared" si="14"/>
         <v>1262108.4000000001</v>
       </c>
       <c r="K51">
-        <f>K27*K18</f>
+        <f t="shared" si="14"/>
         <v>20674.400000000001</v>
       </c>
       <c r="L51">
-        <f>L27*L18</f>
+        <f t="shared" si="14"/>
         <v>14819</v>
       </c>
       <c r="M51">
-        <f>M27*M18</f>
+        <f t="shared" si="14"/>
         <v>236418</v>
       </c>
       <c r="N51">
-        <f>N27*N18</f>
+        <f t="shared" si="14"/>
         <v>480.8</v>
       </c>
       <c r="O51">
-        <f>O27*O18</f>
+        <f t="shared" si="14"/>
         <v>480.8</v>
       </c>
       <c r="P51">
-        <f>P27*P18</f>
+        <f t="shared" si="14"/>
         <v>961.6</v>
       </c>
     </row>
@@ -12180,55 +12181,55 @@
         <v>100</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:P52" si="3">SUM(D47:D51)</f>
+        <f t="shared" ref="D52:P52" si="15">SUM(D47:D51)</f>
         <v>7326301.9000000004</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>8717395.0500000007</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>4412871.9000000004</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>5463614.4000000004</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2544001.2000000002</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>15451051.75</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>5026936.95</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>85548.5</v>
       </c>
       <c r="L52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>55381.3</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>922876.5</v>
       </c>
       <c r="N52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1948.25</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2085.75</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>4006.5</v>
       </c>
     </row>
@@ -12278,55 +12279,55 @@
         <v>95</v>
       </c>
       <c r="D57">
-        <f>(D16)*$V7*D19</f>
+        <f t="shared" ref="D57:P57" si="16">(D16)*$V7*D19</f>
         <v>1220036.4000000001</v>
       </c>
       <c r="E57">
-        <f>(E16)*$V7*E19</f>
+        <f t="shared" si="16"/>
         <v>1560556.8</v>
       </c>
       <c r="F57">
-        <f>(F16)*$V7*F19</f>
+        <f t="shared" si="16"/>
         <v>2738300.4</v>
       </c>
       <c r="G57">
-        <f>(G16)*$V7*G19</f>
+        <f t="shared" si="16"/>
         <v>2219698.8000000003</v>
       </c>
       <c r="H57">
-        <f>(H16)*$V7*H19</f>
+        <f t="shared" si="16"/>
         <v>782614.8</v>
       </c>
       <c r="I57">
-        <f>(I16)*$V7*I19</f>
+        <f t="shared" si="16"/>
         <v>66616</v>
       </c>
       <c r="J57">
-        <f>(J16)*$V7*J19</f>
+        <f t="shared" si="16"/>
         <v>20548</v>
       </c>
       <c r="K57">
-        <f>(K16)*$V7*K19</f>
+        <f t="shared" si="16"/>
         <v>363</v>
       </c>
       <c r="L57">
-        <f>(L16)*$V7*L19</f>
+        <f t="shared" si="16"/>
         <v>2904</v>
       </c>
       <c r="M57">
-        <f>(M16)*$V7*M19</f>
+        <f t="shared" si="16"/>
         <v>1742.4</v>
       </c>
       <c r="N57">
-        <f>(N16)*$V7*N19</f>
+        <f t="shared" si="16"/>
         <v>15.400000000000002</v>
       </c>
       <c r="O57">
-        <f>(O16)*$V7*O19</f>
+        <f t="shared" si="16"/>
         <v>15.400000000000002</v>
       </c>
       <c r="P57">
-        <f>(P16)*$V7*P19</f>
+        <f t="shared" si="16"/>
         <v>15.400000000000002</v>
       </c>
     </row>
@@ -12335,55 +12336,55 @@
         <v>86</v>
       </c>
       <c r="D58">
-        <f>(D16)*$V$8*D19</f>
+        <f t="shared" ref="D58:P58" si="17">(D16)*$V$8*D19</f>
         <v>6405191.1000000006</v>
       </c>
       <c r="E58">
-        <f>(E16)*$V$8*E19</f>
+        <f t="shared" si="17"/>
         <v>8192923.2000000002</v>
       </c>
       <c r="F58">
-        <f>(F16)*$V$8*F19</f>
+        <f t="shared" si="17"/>
         <v>14376077.1</v>
       </c>
       <c r="G58">
-        <f>(G16)*$V$8*G19</f>
+        <f t="shared" si="17"/>
         <v>11653418.700000001</v>
       </c>
       <c r="H58">
-        <f>(H16)*$V$8*H19</f>
+        <f t="shared" si="17"/>
         <v>4108727.7</v>
       </c>
       <c r="I58">
-        <f>(I16)*$V$8*I19</f>
+        <f t="shared" si="17"/>
         <v>349734</v>
       </c>
       <c r="J58">
-        <f>(J16)*$V$8*J19</f>
+        <f t="shared" si="17"/>
         <v>107877</v>
       </c>
       <c r="K58">
-        <f>(K16)*$V$8*K19</f>
+        <f t="shared" si="17"/>
         <v>1905.75</v>
       </c>
       <c r="L58">
-        <f>(L16)*$V$8*L19</f>
+        <f t="shared" si="17"/>
         <v>15246</v>
       </c>
       <c r="M58">
-        <f>(M16)*$V$8*M19</f>
+        <f t="shared" si="17"/>
         <v>9147.6</v>
       </c>
       <c r="N58">
-        <f>(N16)*$V$8*N19</f>
+        <f t="shared" si="17"/>
         <v>80.850000000000009</v>
       </c>
       <c r="O58">
-        <f>(O16)*$V$8*O19</f>
+        <f t="shared" si="17"/>
         <v>80.850000000000009</v>
       </c>
       <c r="P58">
-        <f>(P16)*$V$8*P19</f>
+        <f t="shared" si="17"/>
         <v>80.850000000000009</v>
       </c>
     </row>
@@ -12392,55 +12393,55 @@
         <v>87</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ref="D59:P59" si="4">$X$9*D19</f>
+        <f t="shared" ref="D59:P59" si="18">$X$9*D19</f>
         <v>4448819.6000000006</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>5690515.2000000002</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>9985115.5999999996</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>8094053.2000000002</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2853777.2</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>218621.6</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>67434.8</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1588.4</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>12707.2</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>12707.2</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>144.4</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>144.4</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>144.4</v>
       </c>
     </row>
@@ -12449,55 +12450,55 @@
         <v>88</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60:P60" si="5">$X$10*D19</f>
+        <f t="shared" ref="D60:P60" si="19">$X$10*D19</f>
         <v>1216955.5</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1556616</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2731385.5</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2214093.5</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>780638.5</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>59803</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>18446.5</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>434.5</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>3476</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>3476</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>39.5</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>39.5</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>39.5</v>
       </c>
     </row>
@@ -12506,55 +12507,55 @@
         <v>90</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:P61" si="6">D28*D19</f>
+        <f t="shared" ref="D61:P61" si="20">D28*D19</f>
         <v>25016908</v>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>31999296</v>
       </c>
       <c r="F61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>56148988</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>45515036</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>16047556</v>
       </c>
       <c r="I61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>363360</v>
       </c>
       <c r="J61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>112080</v>
       </c>
       <c r="K61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>1760</v>
       </c>
       <c r="L61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>17600</v>
       </c>
       <c r="M61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>17600</v>
       </c>
       <c r="N61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>160</v>
       </c>
       <c r="O61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>160</v>
       </c>
       <c r="P61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>160</v>
       </c>
     </row>
@@ -12563,55 +12564,55 @@
         <v>100</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:P62" si="7">SUM(D57:D61)</f>
+        <f t="shared" ref="D62:P62" si="21">SUM(D57:D61)</f>
         <v>38307910.600000001</v>
       </c>
       <c r="E62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>48999907.200000003</v>
       </c>
       <c r="F62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>85979866.599999994</v>
       </c>
       <c r="G62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>69696300.200000003</v>
       </c>
       <c r="H62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>24573314.199999999</v>
       </c>
       <c r="I62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1058134.6000000001</v>
       </c>
       <c r="J62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>326386.3</v>
       </c>
       <c r="K62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>6051.65</v>
       </c>
       <c r="L62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>51933.2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44673.2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>440.15000000000003</v>
       </c>
       <c r="O62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>440.15000000000003</v>
       </c>
       <c r="P62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>440.15000000000003</v>
       </c>
     </row>
@@ -12769,51 +12770,51 @@
         <v>1.2209575648449267</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:P75" si="8">((-0.56*(24/(2*PI()))*SIN(((2*PI())/24)*E74))+(0.84*E74))-((-0.56*(24/(2*PI()))*SIN(((2*PI())/24)*E73))+(0.84*E73))</f>
+        <f t="shared" ref="E75:P75" si="22">((-0.56*(24/(2*PI()))*SIN(((2*PI())/24)*E74))+(0.84*E74))-((-0.56*(24/(2*PI()))*SIN(((2*PI())/24)*E73))+(0.84*E73))</f>
         <v>1.2209575648449267</v>
       </c>
       <c r="F75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="H75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="I75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="J75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="K75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="L75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="M75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="N75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="O75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
       <c r="P75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.2209575648449267</v>
       </c>
     </row>
@@ -12922,51 +12923,51 @@
         <v>3.7561685891908114</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E80:P80" si="9">((-1.31*(24/(2*PI()))*SIN(((2*PI())/24)*E79))+(2.19*E79))-((-1.31*(24/(2*PI()))*SIN(((2*PI())/24)*E78))+(2.19*E78))</f>
+        <f t="shared" ref="E80:P80" si="23">((-1.31*(24/(2*PI()))*SIN(((2*PI())/24)*E79))+(2.19*E79))-((-1.31*(24/(2*PI()))*SIN(((2*PI())/24)*E78))+(2.19*E78))</f>
         <v>3.7561685891908114</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="I80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="J80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="K80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="L80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="M80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="N80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="O80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
       <c r="P80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.7561685891908114</v>
       </c>
     </row>
@@ -13075,51 +13076,51 @@
         <v>1.5995484330134033</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:P85" si="10">((-2.66*(24/(2*PI()))*SIN(((2*PI())/24)*E84))+(2.94*E84))-((-2.66*(24/(2*PI()))*SIN(((2*PI())/24)*E83))+(2.94*E83))</f>
+        <f t="shared" ref="E85:P85" si="24">((-2.66*(24/(2*PI()))*SIN(((2*PI())/24)*E84))+(2.94*E84))-((-2.66*(24/(2*PI()))*SIN(((2*PI())/24)*E83))+(2.94*E83))</f>
         <v>1.5995484330134033</v>
       </c>
       <c r="F85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="H85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="J85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="L85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="M85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="N85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="O85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
       <c r="P85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.5995484330134033</v>
       </c>
     </row>
@@ -13174,55 +13175,55 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <f>D17*((365*D75*D10)+$V14)</f>
+        <f t="shared" ref="D92:P92" si="25">D17*((365*D75*D10)+$V14)</f>
         <v>196805.64563190695</v>
       </c>
       <c r="E92">
-        <f>E17*((365*E75*E10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>251735.43065539905</v>
       </c>
       <c r="F92">
-        <f>F17*((365*F75*F10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>441718.77015809453</v>
       </c>
       <c r="G92">
-        <f>G17*((365*G75*G10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>358062.47702311922</v>
       </c>
       <c r="H92">
-        <f>H17*((365*H75*H10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>126244.60302584885</v>
       </c>
       <c r="I92">
-        <f>I17*((365*I75*I10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>151100.02732244236</v>
       </c>
       <c r="J92">
-        <f>J17*((365*J75*J10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>46548.824684985098</v>
       </c>
       <c r="K92">
-        <f>K17*((365*K75*K10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>811.26674008413715</v>
       </c>
       <c r="L92">
-        <f>L17*((365*L75*L10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>562.13758368034701</v>
       </c>
       <c r="M92">
-        <f>M17*((365*M75*M10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>6956.4</v>
       </c>
       <c r="N92">
-        <f>N17*((365*N75*N10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>15.299999999999999</v>
       </c>
       <c r="O92">
-        <f>O17*((365*O75*O10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>15.299999999999999</v>
       </c>
       <c r="P92">
-        <f>P17*((365*P75*P10)+$V14)</f>
+        <f t="shared" si="25"/>
         <v>25.5</v>
       </c>
     </row>
@@ -13277,55 +13278,55 @@
         <v>99</v>
       </c>
       <c r="D96">
-        <f>D18*((365*D80*D10)+$W14)</f>
+        <f t="shared" ref="D96:P96" si="26">D18*((365*D80*D10)+$W14)</f>
         <v>24583.015621663882</v>
       </c>
       <c r="E96">
-        <f>E18*((365*E80*E10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>29134.995840696589</v>
       </c>
       <c r="F96">
-        <f>F18*((365*F80*F10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>15293.260072617541</v>
       </c>
       <c r="G96">
-        <f>G18*((365*G80*G10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>17906.003820786824</v>
       </c>
       <c r="H96">
-        <f>H18*((365*H80*H10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>8604.6360773041743</v>
       </c>
       <c r="I96">
-        <f>I18*((365*I80*I10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>91562.153130288003</v>
       </c>
       <c r="J96">
-        <f>J18*((365*J80*J10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>28206.020285791954</v>
       </c>
       <c r="K96">
-        <f>K18*((365*K80*K10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>499.32436076124088</v>
       </c>
       <c r="L96">
-        <f>L18*((365*L80*L10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>336.75363865292991</v>
       </c>
       <c r="M96">
-        <f>M18*((365*M80*M10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>3480.75</v>
       </c>
       <c r="N96">
-        <f>N18*((365*N80*N10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>7.65</v>
       </c>
       <c r="O96">
-        <f>O18*((365*O80*O10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>7.65</v>
       </c>
       <c r="P96">
-        <f>P18*((365*P80*P10)+$W14)</f>
+        <f t="shared" si="26"/>
         <v>15.3</v>
       </c>
     </row>
@@ -13380,55 +13381,55 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <f>D19*((365*D85*D10)+$V$14)</f>
+        <f t="shared" ref="D100:P100" si="27">D19*((365*D85*D10)+$V$14)</f>
         <v>209109.42242155806</v>
       </c>
       <c r="E100">
-        <f>E19*((365*E85*E10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>267473.27465314552</v>
       </c>
       <c r="F100">
-        <f>F19*((365*F85*F10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>469333.87812094903</v>
       </c>
       <c r="G100">
-        <f>G19*((365*G85*G10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>380447.61124981643</v>
       </c>
       <c r="H100">
-        <f>H19*((365*H85*H10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>134137.08706278205</v>
       </c>
       <c r="I100">
-        <f>I19*((365*I85*I10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>10275.947468150182</v>
       </c>
       <c r="J100">
-        <f>J19*((365*J85*J10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>3169.6614713514759</v>
       </c>
       <c r="K100">
-        <f>K19*((365*K85*K10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>74.660120310206068</v>
       </c>
       <c r="L100">
-        <f>L19*((365*L85*L10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>597.28096248164854</v>
       </c>
       <c r="M100">
-        <f>M19*((365*M85*M10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>448.79999999999995</v>
       </c>
       <c r="N100">
-        <f>N19*((365*N85*N10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="O100">
-        <f>O19*((365*O85*O10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="P100">
-        <f>P19*((365*P85*P10)+$V$14)</f>
+        <f t="shared" si="27"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -13483,55 +13484,55 @@
         <v>98</v>
       </c>
       <c r="D105">
-        <f>D8*12*D29</f>
+        <f t="shared" ref="D105:P105" si="28">D8*12*D29</f>
         <v>5244033.6000000006</v>
       </c>
       <c r="E105">
-        <f>E8*12*E29</f>
+        <f t="shared" si="28"/>
         <v>6214665.6000000006</v>
       </c>
       <c r="F105">
-        <f>F8*12*F29</f>
+        <f t="shared" si="28"/>
         <v>3260812.8000000003</v>
       </c>
       <c r="G105">
-        <f>G8*12*G29</f>
+        <f t="shared" si="28"/>
         <v>3818212.8000000003</v>
       </c>
       <c r="H105">
-        <f>H8*12*H29</f>
+        <f t="shared" si="28"/>
         <v>1834012.8</v>
       </c>
       <c r="I105">
-        <f>I8*12*I29</f>
+        <f t="shared" si="28"/>
         <v>6103814.4000000004</v>
       </c>
       <c r="J105">
-        <f>J8*12*J29</f>
+        <f t="shared" si="28"/>
         <v>1880395.2000000002</v>
       </c>
       <c r="K105">
-        <f>K8*12*K29</f>
+        <f t="shared" si="28"/>
         <v>52070.400000000001</v>
       </c>
       <c r="L105">
-        <f>L8*12*L29</f>
+        <f t="shared" si="28"/>
         <v>32734.799999999999</v>
       </c>
       <c r="M105">
-        <f>M8*12*M29</f>
+        <f t="shared" si="28"/>
         <v>263862</v>
       </c>
       <c r="N105">
-        <f>N8*12*N29</f>
+        <f t="shared" si="28"/>
         <v>720</v>
       </c>
       <c r="O105">
-        <f>O8*12*O29</f>
+        <f t="shared" si="28"/>
         <v>840</v>
       </c>
       <c r="P105">
-        <f>P8*12*P29</f>
+        <f t="shared" si="28"/>
         <v>1200</v>
       </c>
     </row>
@@ -13586,55 +13587,55 @@
         <v>98</v>
       </c>
       <c r="D109">
-        <f>D8*12*D29</f>
+        <f t="shared" ref="D109:P109" si="29">D8*12*D29</f>
         <v>5244033.6000000006</v>
       </c>
       <c r="E109">
-        <f>E8*12*E29</f>
+        <f t="shared" si="29"/>
         <v>6214665.6000000006</v>
       </c>
       <c r="F109">
-        <f>F8*12*F29</f>
+        <f t="shared" si="29"/>
         <v>3260812.8000000003</v>
       </c>
       <c r="G109">
-        <f>G8*12*G29</f>
+        <f t="shared" si="29"/>
         <v>3818212.8000000003</v>
       </c>
       <c r="H109">
-        <f>H8*12*H29</f>
+        <f t="shared" si="29"/>
         <v>1834012.8</v>
       </c>
       <c r="I109">
-        <f>I8*12*I29</f>
+        <f t="shared" si="29"/>
         <v>6103814.4000000004</v>
       </c>
       <c r="J109">
-        <f>J8*12*J29</f>
+        <f t="shared" si="29"/>
         <v>1880395.2000000002</v>
       </c>
       <c r="K109">
-        <f>K8*12*K29</f>
+        <f t="shared" si="29"/>
         <v>52070.400000000001</v>
       </c>
       <c r="L109">
-        <f>L8*12*L29</f>
+        <f t="shared" si="29"/>
         <v>32734.799999999999</v>
       </c>
       <c r="M109">
-        <f>M8*12*M29</f>
+        <f t="shared" si="29"/>
         <v>263862</v>
       </c>
       <c r="N109">
-        <f>N8*12*N29</f>
+        <f t="shared" si="29"/>
         <v>720</v>
       </c>
       <c r="O109">
-        <f>O8*12*O29</f>
+        <f t="shared" si="29"/>
         <v>840</v>
       </c>
       <c r="P109">
-        <f>P8*12*P29</f>
+        <f t="shared" si="29"/>
         <v>1200</v>
       </c>
     </row>
@@ -13689,55 +13690,55 @@
         <v>98</v>
       </c>
       <c r="D113">
-        <f>D8*12*D29</f>
+        <f t="shared" ref="D113:P113" si="30">D8*12*D29</f>
         <v>5244033.6000000006</v>
       </c>
       <c r="E113">
-        <f>E8*12*E29</f>
+        <f t="shared" si="30"/>
         <v>6214665.6000000006</v>
       </c>
       <c r="F113">
-        <f>F8*12*F29</f>
+        <f t="shared" si="30"/>
         <v>3260812.8000000003</v>
       </c>
       <c r="G113">
-        <f>G8*12*G29</f>
+        <f t="shared" si="30"/>
         <v>3818212.8000000003</v>
       </c>
       <c r="H113">
-        <f>H8*12*H29</f>
+        <f t="shared" si="30"/>
         <v>1834012.8</v>
       </c>
       <c r="I113">
-        <f>I8*12*I29</f>
+        <f t="shared" si="30"/>
         <v>6103814.4000000004</v>
       </c>
       <c r="J113">
-        <f>J8*12*J29</f>
+        <f t="shared" si="30"/>
         <v>1880395.2000000002</v>
       </c>
       <c r="K113">
-        <f>K8*12*K29</f>
+        <f t="shared" si="30"/>
         <v>52070.400000000001</v>
       </c>
       <c r="L113">
-        <f>L8*12*L29</f>
+        <f t="shared" si="30"/>
         <v>32734.799999999999</v>
       </c>
       <c r="M113">
-        <f>M8*12*M29</f>
+        <f t="shared" si="30"/>
         <v>263862</v>
       </c>
       <c r="N113">
-        <f>N8*12*N29</f>
+        <f t="shared" si="30"/>
         <v>720</v>
       </c>
       <c r="O113">
-        <f>O8*12*O29</f>
+        <f t="shared" si="30"/>
         <v>840</v>
       </c>
       <c r="P113">
-        <f>P8*12*P29</f>
+        <f t="shared" si="30"/>
         <v>1200</v>
       </c>
     </row>
@@ -13795,55 +13796,55 @@
         <v>110</v>
       </c>
       <c r="D118" s="4">
-        <f t="shared" ref="D118:P118" si="11">D42*-1</f>
+        <f t="shared" ref="D118:P118" si="31">D42*-1</f>
         <v>-31214908.575000003</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-39298642.799999997</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-69284186.294999987</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-56954892.769999996</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-19703809.814999998</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-13710804.560000002</v>
       </c>
       <c r="J118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-4303192.1100000003</v>
       </c>
       <c r="K118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-65015.11</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-49839.68</v>
       </c>
       <c r="M118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-783577.08000000007</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-1494.8700000000001</v>
       </c>
       <c r="O118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-1544.5350000000001</v>
       </c>
       <c r="P118" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>-2552.7750000000001</v>
       </c>
     </row>
@@ -13860,27 +13861,27 @@
         <v>5962930.1693446012</v>
       </c>
       <c r="F119" s="4">
-        <f t="shared" ref="F119:P119" si="12">F105-F92</f>
+        <f t="shared" ref="F119:P119" si="32">F105-F92</f>
         <v>2819094.0298419059</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>3460150.3229768812</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>1707768.1969741513</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>5952714.3726775581</v>
       </c>
       <c r="J119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>1833846.3753150152</v>
       </c>
       <c r="K119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>51259.133259915863</v>
       </c>
       <c r="L119" s="4">
@@ -13888,19 +13889,19 @@
         <v>32172.662416319654</v>
       </c>
       <c r="M119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>256905.60000000001</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>704.7</v>
       </c>
       <c r="O119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>824.7</v>
       </c>
       <c r="P119" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="32"/>
         <v>1174.5</v>
       </c>
     </row>
@@ -13913,51 +13914,51 @@
         <v>5047227.954368094</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" ref="E120:P120" si="13">E119</f>
+        <f t="shared" ref="E120:P120" si="33">E119</f>
         <v>5962930.1693446012</v>
       </c>
       <c r="F120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>2819094.0298419059</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>3460150.3229768812</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>1707768.1969741513</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>5952714.3726775581</v>
       </c>
       <c r="J120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>1833846.3753150152</v>
       </c>
       <c r="K120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>51259.133259915863</v>
       </c>
       <c r="L120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>32172.662416319654</v>
       </c>
       <c r="M120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>256905.60000000001</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>704.7</v>
       </c>
       <c r="O120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>824.7</v>
       </c>
       <c r="P120" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>1174.5</v>
       </c>
     </row>
@@ -13966,55 +13967,55 @@
         <v>3</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" ref="D121:D123" si="14">D120</f>
+        <f t="shared" ref="D121:D123" si="34">D120</f>
         <v>5047227.954368094</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" ref="E121:E123" si="15">E120</f>
+        <f t="shared" ref="E121:E123" si="35">E120</f>
         <v>5962930.1693446012</v>
       </c>
       <c r="F121" s="4">
-        <f t="shared" ref="F121:F123" si="16">F120</f>
+        <f t="shared" ref="F121:F123" si="36">F120</f>
         <v>2819094.0298419059</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" ref="G121:G123" si="17">G120</f>
+        <f t="shared" ref="G121:G123" si="37">G120</f>
         <v>3460150.3229768812</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" ref="H121:H123" si="18">H120</f>
+        <f t="shared" ref="H121:H123" si="38">H120</f>
         <v>1707768.1969741513</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" ref="I121:I123" si="19">I120</f>
+        <f t="shared" ref="I121:I123" si="39">I120</f>
         <v>5952714.3726775581</v>
       </c>
       <c r="J121" s="4">
-        <f t="shared" ref="J121:J123" si="20">J120</f>
+        <f t="shared" ref="J121:J123" si="40">J120</f>
         <v>1833846.3753150152</v>
       </c>
       <c r="K121" s="4">
-        <f t="shared" ref="K121:K123" si="21">K120</f>
+        <f t="shared" ref="K121:K123" si="41">K120</f>
         <v>51259.133259915863</v>
       </c>
       <c r="L121" s="4">
-        <f t="shared" ref="L121:L123" si="22">L120</f>
+        <f t="shared" ref="L121:L123" si="42">L120</f>
         <v>32172.662416319654</v>
       </c>
       <c r="M121" s="4">
-        <f t="shared" ref="M121:M123" si="23">M120</f>
+        <f t="shared" ref="M121:M123" si="43">M120</f>
         <v>256905.60000000001</v>
       </c>
       <c r="N121" s="4">
-        <f t="shared" ref="N121:N123" si="24">N120</f>
+        <f t="shared" ref="N121:N123" si="44">N120</f>
         <v>704.7</v>
       </c>
       <c r="O121" s="4">
-        <f t="shared" ref="O121:O123" si="25">O120</f>
+        <f t="shared" ref="O121:O123" si="45">O120</f>
         <v>824.7</v>
       </c>
       <c r="P121" s="4">
-        <f t="shared" ref="P121:P123" si="26">P120</f>
+        <f t="shared" ref="P121:P123" si="46">P120</f>
         <v>1174.5</v>
       </c>
     </row>
@@ -14023,55 +14024,55 @@
         <v>4</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>5047227.954368094</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>5962930.1693446012</v>
       </c>
       <c r="F122" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>2819094.0298419059</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>3460150.3229768812</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1707768.1969741513</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>5952714.3726775581</v>
       </c>
       <c r="J122" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1833846.3753150152</v>
       </c>
       <c r="K122" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>51259.133259915863</v>
       </c>
       <c r="L122" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>32172.662416319654</v>
       </c>
       <c r="M122" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>256905.60000000001</v>
       </c>
       <c r="N122" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>704.7</v>
       </c>
       <c r="O122" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>824.7</v>
       </c>
       <c r="P122" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1174.5</v>
       </c>
     </row>
@@ -14080,55 +14081,55 @@
         <v>5</v>
       </c>
       <c r="D123" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>5047227.954368094</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>5962930.1693446012</v>
       </c>
       <c r="F123" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>2819094.0298419059</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>3460150.3229768812</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1707768.1969741513</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>5952714.3726775581</v>
       </c>
       <c r="J123" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1833846.3753150152</v>
       </c>
       <c r="K123" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>51259.133259915863</v>
       </c>
       <c r="L123" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>32172.662416319654</v>
       </c>
       <c r="M123" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v>256905.60000000001</v>
       </c>
       <c r="N123" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>704.7</v>
       </c>
       <c r="O123" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>824.7</v>
       </c>
       <c r="P123" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1174.5</v>
       </c>
     </row>
@@ -14141,51 +14142,51 @@
         <v>-9363052.8952076286</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" ref="E124:P124" si="27">NPV(5%,E119:E123)+E118</f>
+        <f t="shared" ref="E124:P124" si="47">NPV(5%,E119:E123)+E118</f>
         <v>-13482275.743221864</v>
       </c>
       <c r="F124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-57078984.460484833</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-41974252.669795893</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-12310067.247355152</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>12061333.443436258</v>
       </c>
       <c r="J124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>3636402.9894472472</v>
       </c>
       <c r="K124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>156910.11160556198</v>
       </c>
       <c r="L124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>89451.111363536911</v>
       </c>
       <c r="M124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>328689.72175441263</v>
       </c>
       <c r="N124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1556.1122097935383</v>
       </c>
       <c r="O124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>2025.9844102692362</v>
       </c>
       <c r="P124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>2532.1953496558967</v>
       </c>
     </row>
@@ -14198,51 +14199,51 @@
         <v>-6.6929857122558389E-2</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" ref="E125:P125" si="28">IRR(E118:E123)</f>
+        <f t="shared" ref="E125:P125" si="48">IRR(E118:E123)</f>
         <v>-8.5523602876574678E-2</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-0.37030964468791783</v>
       </c>
       <c r="G125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-0.29954419830951362</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-0.22664479243082902</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.32973002075111535</v>
       </c>
       <c r="J125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.3196952576202523</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.73881828313357034</v>
       </c>
       <c r="L125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.57995578528210423</v>
       </c>
       <c r="M125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.1911122348638572</v>
       </c>
       <c r="N125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.37576258090731463</v>
       </c>
       <c r="O125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.45090366688612882</v>
       </c>
       <c r="P125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.36187950910258171</v>
       </c>
     </row>
@@ -14300,55 +14301,55 @@
         <v>110</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" ref="D131:P131" si="29">D52*-1</f>
+        <f t="shared" ref="D131:P131" si="49">D52*-1</f>
         <v>-7326301.9000000004</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-8717395.0500000007</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-4412871.9000000004</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-5463614.4000000004</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-2544001.2000000002</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-15451051.75</v>
       </c>
       <c r="J131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-5026936.95</v>
       </c>
       <c r="K131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-85548.5</v>
       </c>
       <c r="L131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-55381.3</v>
       </c>
       <c r="M131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-922876.5</v>
       </c>
       <c r="N131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-1948.25</v>
       </c>
       <c r="O131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-2085.75</v>
       </c>
       <c r="P131" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-4006.5</v>
       </c>
     </row>
@@ -14365,47 +14366,47 @@
         <v>6185530.6041593039</v>
       </c>
       <c r="F132" s="4">
-        <f t="shared" ref="F132:P132" si="30">F109-F96</f>
+        <f t="shared" ref="F132:P132" si="50">F109-F96</f>
         <v>3245519.539927383</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>260381.25</v>
       </c>
       <c r="N132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>712.35</v>
       </c>
       <c r="O132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>832.35</v>
       </c>
       <c r="P132" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14418,51 +14419,51 @@
         <v>5219450.5843783366</v>
       </c>
       <c r="E133" s="4">
-        <f t="shared" ref="E133:P133" si="31">E132</f>
+        <f t="shared" ref="E133:P133" si="51">E132</f>
         <v>6185530.6041593039</v>
       </c>
       <c r="F133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>260381.25</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>712.35</v>
       </c>
       <c r="O133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>832.35</v>
       </c>
       <c r="P133" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14471,55 +14472,55 @@
         <v>3</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" ref="D134:D141" si="32">D133</f>
+        <f t="shared" ref="D134:D141" si="52">D133</f>
         <v>5219450.5843783366</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" ref="E134:E141" si="33">E133</f>
+        <f t="shared" ref="E134:E141" si="53">E133</f>
         <v>6185530.6041593039</v>
       </c>
       <c r="F134" s="4">
-        <f t="shared" ref="F134:F141" si="34">F133</f>
+        <f t="shared" ref="F134:F141" si="54">F133</f>
         <v>3245519.539927383</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" ref="G134:G141" si="35">G133</f>
+        <f t="shared" ref="G134:G141" si="55">G133</f>
         <v>3800306.7961792136</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" ref="H134:H141" si="36">H133</f>
+        <f t="shared" ref="H134:H141" si="56">H133</f>
         <v>1825408.1639226959</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" ref="I134:I141" si="37">I133</f>
+        <f t="shared" ref="I134:I141" si="57">I133</f>
         <v>6012252.2468697121</v>
       </c>
       <c r="J134" s="4">
-        <f t="shared" ref="J134:J141" si="38">J133</f>
+        <f t="shared" ref="J134:J141" si="58">J133</f>
         <v>1852189.1797142082</v>
       </c>
       <c r="K134" s="4">
-        <f t="shared" ref="K134:K141" si="39">K133</f>
+        <f t="shared" ref="K134:K141" si="59">K133</f>
         <v>51571.075639238763</v>
       </c>
       <c r="L134" s="4">
-        <f t="shared" ref="L134:L141" si="40">L133</f>
+        <f t="shared" ref="L134:L141" si="60">L133</f>
         <v>32398.046361347071</v>
       </c>
       <c r="M134" s="4">
-        <f t="shared" ref="M134:M141" si="41">M133</f>
+        <f t="shared" ref="M134:M141" si="61">M133</f>
         <v>260381.25</v>
       </c>
       <c r="N134" s="4">
-        <f t="shared" ref="N134:N141" si="42">N133</f>
+        <f t="shared" ref="N134:N141" si="62">N133</f>
         <v>712.35</v>
       </c>
       <c r="O134" s="4">
-        <f t="shared" ref="O134:O141" si="43">O133</f>
+        <f t="shared" ref="O134:O141" si="63">O133</f>
         <v>832.35</v>
       </c>
       <c r="P134" s="4">
-        <f t="shared" ref="P134:P141" si="44">P133</f>
+        <f t="shared" ref="P134:P141" si="64">P133</f>
         <v>1184.7</v>
       </c>
     </row>
@@ -14528,55 +14529,55 @@
         <v>4</v>
       </c>
       <c r="D135" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F135" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I135" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J135" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K135" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L135" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M135" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N135" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O135" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P135" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14585,55 +14586,55 @@
         <v>5</v>
       </c>
       <c r="D136" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E136" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F136" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G136" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I136" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J136" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K136" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L136" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M136" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N136" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O136" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P136" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14642,55 +14643,55 @@
         <v>6</v>
       </c>
       <c r="D137" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E137" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F137" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I137" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J137" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K137" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L137" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M137" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N137" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O137" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P137" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14699,55 +14700,55 @@
         <v>7</v>
       </c>
       <c r="D138" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F138" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I138" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J138" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K138" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L138" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M138" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N138" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O138" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P138" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14756,55 +14757,55 @@
         <v>8</v>
       </c>
       <c r="D139" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F139" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I139" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J139" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K139" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L139" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M139" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N139" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O139" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P139" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14813,55 +14814,55 @@
         <v>9</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F140" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J140" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K140" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L140" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M140" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O140" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P140" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14870,55 +14871,55 @@
         <v>10</v>
       </c>
       <c r="D141" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5219450.5843783366</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>6185530.6041593039</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3245519.539927383</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3800306.7961792136</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>1825408.1639226959</v>
       </c>
       <c r="I141" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6012252.2468697121</v>
       </c>
       <c r="J141" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1852189.1797142082</v>
       </c>
       <c r="K141" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>51571.075639238763</v>
       </c>
       <c r="L141" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>32398.046361347071</v>
       </c>
       <c r="M141" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>260381.25</v>
       </c>
       <c r="N141" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>712.35</v>
       </c>
       <c r="O141" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>832.35</v>
       </c>
       <c r="P141" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>1184.7</v>
       </c>
     </row>
@@ -14931,51 +14932,51 @@
         <v>32976911.988548279</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" ref="E142:P142" si="45">NPV(5%,E132:E141)+E131</f>
+        <f t="shared" ref="E142:P142" si="65">NPV(5%,E132:E141)+E131</f>
         <v>39045632.671678528</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>20648169.694809087</v>
       </c>
       <c r="G142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>23881347.329675458</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>11551316.779380996</v>
       </c>
       <c r="I142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>30973966.427723713</v>
       </c>
       <c r="J142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>9275176.9344573617</v>
       </c>
       <c r="K142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>312669.67609914177</v>
       </c>
       <c r="L142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>194787.82622576255</v>
       </c>
       <c r="M142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>1087718.4930298026</v>
       </c>
       <c r="N142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>3552.3278768048003</v>
       </c>
       <c r="O142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>4341.4360683069772</v>
       </c>
       <c r="P142" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>5141.4393706052469</v>
       </c>
     </row>
@@ -14988,51 +14989,51 @@
         <v>0.70907572509869254</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" ref="E143:P143" si="46">IRR(E131:E141)</f>
+        <f t="shared" ref="E143:P143" si="66">IRR(E131:E141)</f>
         <v>0.7061673232304515</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.73244682019246499</v>
       </c>
       <c r="G143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.69194844608441586</v>
       </c>
       <c r="H143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.71426034574152264</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.37274055372767956</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.350147889375789</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.59725072092314102</v>
       </c>
       <c r="L143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.57892481621616576</v>
       </c>
       <c r="M143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.2524286545143406</v>
       </c>
       <c r="N143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.34704852593957747</v>
       </c>
       <c r="O143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.38353627237534038</v>
       </c>
       <c r="P143" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.26822262267047692</v>
       </c>
     </row>
@@ -15094,51 +15095,51 @@
         <v>-38307910.600000001</v>
       </c>
       <c r="E149" s="4">
-        <f t="shared" ref="E149:P149" si="47">E62*-1</f>
+        <f t="shared" ref="E149:P149" si="67">E62*-1</f>
         <v>-48999907.200000003</v>
       </c>
       <c r="F149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-85979866.599999994</v>
       </c>
       <c r="G149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-69696300.200000003</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-24573314.199999999</v>
       </c>
       <c r="I149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-1058134.6000000001</v>
       </c>
       <c r="J149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-326386.3</v>
       </c>
       <c r="K149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-6051.65</v>
       </c>
       <c r="L149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-51933.2</v>
       </c>
       <c r="M149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-44673.2</v>
       </c>
       <c r="N149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-440.15000000000003</v>
       </c>
       <c r="O149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-440.15000000000003</v>
       </c>
       <c r="P149" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>-440.15000000000003</v>
       </c>
     </row>
@@ -15151,51 +15152,51 @@
         <v>5034924.1775784427</v>
       </c>
       <c r="E150" s="4">
-        <f t="shared" ref="E150:P150" si="48">E113-E100</f>
+        <f t="shared" ref="E150:P150" si="68">E113-E100</f>
         <v>5947192.3253468554</v>
       </c>
       <c r="F150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>2791478.9218790513</v>
       </c>
       <c r="G150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>3437765.1887501837</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>1699875.7129372179</v>
       </c>
       <c r="I150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>6093538.45253185</v>
       </c>
       <c r="J150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>1877225.5385286487</v>
       </c>
       <c r="K150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>51995.739879689798</v>
       </c>
       <c r="L150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>32137.519037518352</v>
       </c>
       <c r="M150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>263413.2</v>
       </c>
       <c r="N150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>714.9</v>
       </c>
       <c r="O150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>834.9</v>
       </c>
       <c r="P150" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>1194.9000000000001</v>
       </c>
       <c r="Q150" s="4"/>
@@ -15209,51 +15210,51 @@
         <v>5034924.1775784427</v>
       </c>
       <c r="E151" s="4">
-        <f t="shared" ref="E151:P154" si="49">E150</f>
+        <f t="shared" ref="E151:P154" si="69">E150</f>
         <v>5947192.3253468554</v>
       </c>
       <c r="F151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>2791478.9218790513</v>
       </c>
       <c r="G151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>3437765.1887501837</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1699875.7129372179</v>
       </c>
       <c r="I151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
       <c r="J151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1877225.5385286487</v>
       </c>
       <c r="K151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>51995.739879689798</v>
       </c>
       <c r="L151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>32137.519037518352</v>
       </c>
       <c r="M151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>263413.2</v>
       </c>
       <c r="N151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>714.9</v>
       </c>
       <c r="O151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>834.9</v>
       </c>
       <c r="P151" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1194.9000000000001</v>
       </c>
     </row>
@@ -15262,55 +15263,55 @@
         <v>3</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" ref="D152:D154" si="50">D151</f>
+        <f t="shared" ref="D152:D154" si="70">D151</f>
         <v>5034924.1775784427</v>
       </c>
       <c r="E152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>5947192.3253468554</v>
       </c>
       <c r="F152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>2791478.9218790513</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>3437765.1887501837</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1699875.7129372179</v>
       </c>
       <c r="I152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
       <c r="J152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1877225.5385286487</v>
       </c>
       <c r="K152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>51995.739879689798</v>
       </c>
       <c r="L152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>32137.519037518352</v>
       </c>
       <c r="M152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>263413.2</v>
       </c>
       <c r="N152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>714.9</v>
       </c>
       <c r="O152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>834.9</v>
       </c>
       <c r="P152" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1194.9000000000001</v>
       </c>
     </row>
@@ -15319,55 +15320,55 @@
         <v>4</v>
       </c>
       <c r="D153" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>5034924.1775784427</v>
       </c>
       <c r="E153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>5947192.3253468554</v>
       </c>
       <c r="F153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>2791478.9218790513</v>
       </c>
       <c r="G153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>3437765.1887501837</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1699875.7129372179</v>
       </c>
       <c r="I153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
       <c r="J153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1877225.5385286487</v>
       </c>
       <c r="K153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>51995.739879689798</v>
       </c>
       <c r="L153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>32137.519037518352</v>
       </c>
       <c r="M153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>263413.2</v>
       </c>
       <c r="N153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>714.9</v>
       </c>
       <c r="O153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>834.9</v>
       </c>
       <c r="P153" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1194.9000000000001</v>
       </c>
     </row>
@@ -15376,55 +15377,55 @@
         <v>5</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>5034924.1775784427</v>
       </c>
       <c r="E154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>5947192.3253468554</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>2791478.9218790513</v>
       </c>
       <c r="G154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>3437765.1887501837</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1699875.7129372179</v>
       </c>
       <c r="I154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>6093538.45253185</v>
       </c>
       <c r="J154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1877225.5385286487</v>
       </c>
       <c r="K154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>51995.739879689798</v>
       </c>
       <c r="L154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>32137.519037518352</v>
       </c>
       <c r="M154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>263413.2</v>
       </c>
       <c r="N154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>714.9</v>
       </c>
       <c r="O154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>834.9</v>
       </c>
       <c r="P154" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>1194.9000000000001</v>
       </c>
     </row>
@@ -15437,51 +15438,51 @@
         <v>-16509323.834779073</v>
       </c>
       <c r="E155" s="4">
-        <f t="shared" ref="E155:P155" si="51">NPV(5%,E150:E154)+E149</f>
+        <f t="shared" ref="E155:P155" si="71">NPV(5%,E150:E154)+E149</f>
         <v>-23251676.771656141</v>
       </c>
       <c r="F155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>-73894223.731166974</v>
       </c>
       <c r="G155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>-54812576.016199328</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>-17213741.957866386</v>
       </c>
       <c r="I155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>25323697.971828461</v>
       </c>
       <c r="J155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>7801017.8745721597</v>
       </c>
       <c r="K155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>219062.69278130546</v>
       </c>
       <c r="L155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>87205.438924889531</v>
       </c>
       <c r="M155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>1095768.1041362099</v>
       </c>
       <c r="N155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>2654.992871833972</v>
       </c>
       <c r="O155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>3174.5300723096707</v>
       </c>
       <c r="P155" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>4733.1416737367672</v>
       </c>
     </row>
@@ -15494,51 +15495,51 @@
         <v>-0.12539210056043426</v>
       </c>
       <c r="E156" s="3">
-        <f t="shared" ref="E156:P156" si="52">IRR(E149:E154)</f>
+        <f t="shared" ref="E156:P156" si="72">IRR(E149:E154)</f>
         <v>-0.1463128281907895</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>-0.4057865150599026</v>
       </c>
       <c r="G156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>-0.33767506633099342</v>
       </c>
       <c r="H156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>-0.27414262097829023</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>5.7583470667209768</v>
       </c>
       <c r="J156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>5.7511350328774284</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>8.5918880777432829</v>
       </c>
       <c r="L156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>0.5495565728326508</v>
       </c>
       <c r="M156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>5.8960699035483888</v>
       </c>
       <c r="N156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>1.6108299066400402</v>
       </c>
       <c r="O156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>1.8874019147516958</v>
       </c>
       <c r="P156" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>2.7108985710346958</v>
       </c>
     </row>
@@ -15575,15 +15576,15 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D187" si="53">0.84-(0.56*COS((2*PI()/24)*C164))</f>
+        <f t="shared" ref="D164:D187" si="73">0.84-(0.56*COS((2*PI()/24)*C164))</f>
         <v>0.2990815372781217</v>
       </c>
       <c r="E164">
-        <f t="shared" ref="E164:E187" si="54">2.19-(1.31*COS((2*PI()/24)*C164))</f>
+        <f t="shared" ref="E164:E187" si="74">2.19-(1.31*COS((2*PI()/24)*C164))</f>
         <v>0.92463716756132031</v>
       </c>
       <c r="F164">
-        <f t="shared" ref="F164:F187" si="55">2.99-(2.66*COS((2*PI()/24)*C164))</f>
+        <f t="shared" ref="F164:F187" si="75">2.99-(2.66*COS((2*PI()/24)*C164))</f>
         <v>0.42063730207107852</v>
       </c>
     </row>
@@ -15592,15 +15593,15 @@
         <v>2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.35502577388071427</v>
       </c>
       <c r="E165">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.0555067210423852</v>
       </c>
       <c r="F165">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>0.68637242593339298</v>
       </c>
     </row>
@@ -15609,15 +15610,15 @@
         <v>3</v>
       </c>
       <c r="D166">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.44402020253553331</v>
       </c>
       <c r="E166">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.2636901166456225</v>
       </c>
       <c r="F166">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>1.1090959620437835</v>
       </c>
     </row>
@@ -15626,15 +15627,15 @@
         <v>4</v>
       </c>
       <c r="D167">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.55999999999999983</v>
       </c>
       <c r="E167">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.5349999999999997</v>
       </c>
       <c r="F167">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>1.66</v>
       </c>
     </row>
@@ -15643,15 +15644,15 @@
         <v>5</v>
       </c>
       <c r="D168">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.69506133474258824</v>
       </c>
       <c r="E168">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.8509470509156976</v>
       </c>
       <c r="F168">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>2.3015413400272946</v>
       </c>
     </row>
@@ -15660,15 +15661,15 @@
         <v>6</v>
       </c>
       <c r="D169">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.84</v>
       </c>
       <c r="E169">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>2.19</v>
       </c>
       <c r="F169">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>2.99</v>
       </c>
     </row>
@@ -15677,15 +15678,15 @@
         <v>7</v>
       </c>
       <c r="D170">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.98493866525741147</v>
       </c>
       <c r="E170">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>2.5290529490843019</v>
       </c>
       <c r="F170">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>3.6784586599727049</v>
       </c>
     </row>
@@ -15694,15 +15695,15 @@
         <v>8</v>
       </c>
       <c r="D171">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="E171">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>2.8449999999999998</v>
       </c>
       <c r="F171">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>4.3199999999999994</v>
       </c>
     </row>
@@ -15711,15 +15712,15 @@
         <v>9</v>
       </c>
       <c r="D172">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.2359797974644666</v>
       </c>
       <c r="E172">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.1163098833543774</v>
       </c>
       <c r="F172">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>4.8709040379562163</v>
       </c>
     </row>
@@ -15728,15 +15729,15 @@
         <v>10</v>
       </c>
       <c r="D173">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.3249742261192856</v>
       </c>
       <c r="E173">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.3244932789576147</v>
       </c>
       <c r="F173">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>5.2936275740666066</v>
       </c>
     </row>
@@ -15745,15 +15746,15 @@
         <v>11</v>
       </c>
       <c r="D174">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.3809184627218782</v>
       </c>
       <c r="E174">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.4553628324386794</v>
       </c>
       <c r="F174">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>5.5593626979289219</v>
       </c>
     </row>
@@ -15762,15 +15763,15 @@
         <v>12</v>
       </c>
       <c r="D175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.4</v>
       </c>
       <c r="E175">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.5</v>
       </c>
       <c r="F175">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>5.65</v>
       </c>
     </row>
@@ -15779,15 +15780,15 @@
         <v>13</v>
       </c>
       <c r="D176">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.3809184627218785</v>
       </c>
       <c r="E176">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.4553628324386798</v>
       </c>
       <c r="F176">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>5.5593626979289219</v>
       </c>
     </row>
@@ -15796,15 +15797,15 @@
         <v>14</v>
       </c>
       <c r="D177">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.3249742261192858</v>
       </c>
       <c r="E177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.3244932789576147</v>
       </c>
       <c r="F177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>5.2936275740666074</v>
       </c>
     </row>
@@ -15813,15 +15814,15 @@
         <v>15</v>
       </c>
       <c r="D178">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.2359797974644668</v>
       </c>
       <c r="E178">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>3.1163098833543779</v>
       </c>
       <c r="F178">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>4.8709040379562181</v>
       </c>
     </row>
@@ -15830,15 +15831,15 @@
         <v>16</v>
       </c>
       <c r="D179">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="E179">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>2.8450000000000006</v>
       </c>
       <c r="F179">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>4.3200000000000012</v>
       </c>
     </row>
@@ -15847,15 +15848,15 @@
         <v>17</v>
       </c>
       <c r="D180">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.98493866525741203</v>
       </c>
       <c r="E180">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>2.5290529490843032</v>
       </c>
       <c r="F180">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>3.6784586599727076</v>
       </c>
     </row>
@@ -15864,15 +15865,15 @@
         <v>18</v>
       </c>
       <c r="D181">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.84000000000000008</v>
       </c>
       <c r="E181">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>2.1900000000000004</v>
       </c>
       <c r="F181">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>2.9900000000000007</v>
       </c>
     </row>
@@ -15881,15 +15882,15 @@
         <v>19</v>
       </c>
       <c r="D182">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.69506133474258858</v>
       </c>
       <c r="E182">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.8509470509156984</v>
       </c>
       <c r="F182">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>2.3015413400272964</v>
       </c>
     </row>
@@ -15898,15 +15899,15 @@
         <v>20</v>
       </c>
       <c r="D183">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.56000000000000028</v>
       </c>
       <c r="E183">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.5350000000000008</v>
       </c>
       <c r="F183">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>1.6600000000000019</v>
       </c>
     </row>
@@ -15915,15 +15916,15 @@
         <v>21</v>
       </c>
       <c r="D184">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.44402020253553343</v>
       </c>
       <c r="E184">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.2636901166456229</v>
       </c>
       <c r="F184">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>1.1090959620437841</v>
       </c>
     </row>
@@ -15932,15 +15933,15 @@
         <v>22</v>
       </c>
       <c r="D185">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.35502577388071443</v>
       </c>
       <c r="E185">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>1.0555067210423856</v>
       </c>
       <c r="F185">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>0.68637242593339387</v>
       </c>
     </row>
@@ -15949,15 +15950,15 @@
         <v>23</v>
       </c>
       <c r="D186">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.29908153727812181</v>
       </c>
       <c r="E186">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>0.92463716756132075</v>
       </c>
       <c r="F186">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>0.42063730207107897</v>
       </c>
     </row>
@@ -15966,15 +15967,15 @@
         <v>24</v>
       </c>
       <c r="D187">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.27999999999999992</v>
       </c>
       <c r="E187">
-        <f t="shared" si="54"/>
+        <f t="shared" si="74"/>
         <v>0.87999999999999989</v>
       </c>
       <c r="F187">
-        <f t="shared" si="55"/>
+        <f t="shared" si="75"/>
         <v>0.33000000000000007</v>
       </c>
     </row>
